--- a/list_2.xlsx
+++ b/list_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3508,11 +3508,21 @@
       <c r="C118" t="n">
         <v>994190</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>231339</v>
+      </c>
+      <c r="E118" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F118" t="n">
+        <v>56215377000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>49756137138000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1099999994039536</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3522,13 +3532,29 @@
         <v>248000</v>
       </c>
       <c r="C119" t="n">
-        <v>1123197</v>
+        <v>1155423</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>256500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2002013</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3541,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6617,11 +6643,21 @@
       <c r="C118" t="n">
         <v>5457195</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1696912</v>
+      </c>
+      <c r="E118" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>38265365600</v>
+      </c>
+      <c r="G118" t="n">
+        <v>19844000000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1899999976158142</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6638,6 +6674,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>23700</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9297415</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6650,7 +6702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9726,11 +9778,21 @@
       <c r="C118" t="n">
         <v>133233</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>293193</v>
+      </c>
+      <c r="E118" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F118" t="n">
+        <v>149235237000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>45185516044000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.3300000131130219</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9740,13 +9802,29 @@
         <v>512000</v>
       </c>
       <c r="C119" t="n">
-        <v>133308</v>
+        <v>144443</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>563000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>497022</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9759,7 +9837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12835,11 +12913,21 @@
       <c r="C118" t="n">
         <v>3468221</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>490548</v>
+      </c>
+      <c r="E118" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F118" t="n">
+        <v>52586745600</v>
+      </c>
+      <c r="G118" t="n">
+        <v>32847515836800</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.1599999964237213</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -12857,6 +12945,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>120700</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4392565</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_2.xlsx
+++ b/list_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5562,11 +5562,21 @@
       <c r="C197" t="n">
         <v>909720</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>197904</v>
+      </c>
+      <c r="E197" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F197" t="n">
+        <v>49871808000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>51598957032000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5583,6 +5593,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C199" t="n">
+        <v>763121</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5595,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10725,11 +10751,21 @@
       <c r="C197" t="n">
         <v>4843926</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>1101954</v>
+      </c>
+      <c r="E197" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>26336700600</v>
+      </c>
+      <c r="G197" t="n">
+        <v>21032000000000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.1299999952316284</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10746,6 +10782,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>29100</v>
+      </c>
+      <c r="C199" t="n">
+        <v>26228067</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10758,7 +10810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15888,11 +15940,21 @@
       <c r="C197" t="n">
         <v>205158</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>255318</v>
+      </c>
+      <c r="E197" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F197" t="n">
+        <v>147318486000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>51222087932000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2899999916553497</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15909,6 +15971,22 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>624000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>339283</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15921,7 +15999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21051,11 +21129,21 @@
       <c r="C197" t="n">
         <v>5914162</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>425903</v>
+      </c>
+      <c r="E197" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F197" t="n">
+        <v>57454314700</v>
+      </c>
+      <c r="G197" t="n">
+        <v>41335166850600</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -21073,6 +21161,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>139700</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4496003</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_2.xlsx
+++ b/list_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5588,11 +5588,21 @@
       <c r="C198" t="n">
         <v>775983</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>210390</v>
+      </c>
+      <c r="E198" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F198" t="n">
+        <v>53123475000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>51701335915000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5609,6 +5619,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>250500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>677447</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5621,7 +5647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10777,11 +10803,21 @@
       <c r="C198" t="n">
         <v>12703691</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>1065154</v>
+      </c>
+      <c r="E198" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>26415819200</v>
+      </c>
+      <c r="G198" t="n">
+        <v>21824000000000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.119999997317791</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10798,6 +10834,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>29950</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19412962</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10810,7 +10862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15966,11 +16018,21 @@
       <c r="C198" t="n">
         <v>243512</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>201330</v>
+      </c>
+      <c r="E198" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F198" t="n">
+        <v>119590020000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>52731230904000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.2300000041723251</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15980,13 +16042,29 @@
         <v>624000</v>
       </c>
       <c r="C199" t="n">
-        <v>339283</v>
+        <v>340372</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>594000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>217879</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15999,7 +16077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21155,11 +21233,21 @@
       <c r="C198" t="n">
         <v>2516846</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>421908</v>
+      </c>
+      <c r="E198" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F198" t="n">
+        <v>57041961600</v>
+      </c>
+      <c r="G198" t="n">
+        <v>41427090868800</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1400000005960464</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -21169,7 +21257,7 @@
         <v>139700</v>
       </c>
       <c r="C199" t="n">
-        <v>4496003</v>
+        <v>4505399</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -21177,6 +21265,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>131500</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3506856</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_2.xlsx
+++ b/list_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5614,11 +5614,21 @@
       <c r="C199" t="n">
         <v>763121</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>210254</v>
+      </c>
+      <c r="E199" t="n">
+        <v>204757766</v>
+      </c>
+      <c r="F199" t="n">
+        <v>53509643000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>52110851447000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5635,6 +5645,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>258000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>937830</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5647,7 +5673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10829,11 +10855,21 @@
       <c r="C199" t="n">
         <v>26228067</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>876154</v>
+      </c>
+      <c r="E199" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25496081400</v>
+      </c>
+      <c r="G199" t="n">
+        <v>25608000000000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1000000014901161</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10850,6 +10886,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12108562</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10862,7 +10914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16044,11 +16096,21 @@
       <c r="C199" t="n">
         <v>340372</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>269687</v>
+      </c>
+      <c r="E199" t="n">
+        <v>88773116</v>
+      </c>
+      <c r="F199" t="n">
+        <v>168284688000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>55394424384000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.300000011920929</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16058,13 +16120,29 @@
         <v>594000</v>
       </c>
       <c r="C200" t="n">
-        <v>217879</v>
+        <v>218909</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>595000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>224644</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16077,7 +16155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21259,11 +21337,21 @@
       <c r="C199" t="n">
         <v>4505399</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>389090</v>
+      </c>
+      <c r="E199" t="n">
+        <v>306413394</v>
+      </c>
+      <c r="F199" t="n">
+        <v>54355873000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>42805951141800</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.1299999952316284</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -21281,6 +21369,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>131900</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4039971</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
